--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Spring.012220.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Spring.012220.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1605,12 +1605,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1731,12 +1731,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1773,12 +1773,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1983,12 +1983,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2193,12 +2193,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2697,12 +2697,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3247,12 +3247,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3331,12 +3331,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3415,12 +3415,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3583,12 +3583,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3625,12 +3625,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3667,12 +3667,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4889,12 +4889,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4973,12 +4973,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5519,12 +5519,12 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6065,12 +6065,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6107,12 +6107,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6275,12 +6275,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6695,12 +6695,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6737,12 +6737,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7325,12 +7325,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8207,12 +8207,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8253,12 +8253,12 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8295,12 +8295,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9345,12 +9345,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9429,12 +9429,12 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9471,12 +9471,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -10101,12 +10101,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10395,12 +10395,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11193,12 +11193,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11319,12 +11319,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11361,12 +11361,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11445,12 +11445,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11697,12 +11697,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11827,12 +11827,12 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11869,12 +11869,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12289,12 +12289,12 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12623,12 +12623,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12749,12 +12749,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12833,12 +12833,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13043,12 +13043,12 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13631,12 +13631,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13715,12 +13715,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14051,12 +14051,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14471,12 +14471,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15059,12 +15059,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15143,12 +15143,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15269,12 +15269,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15311,12 +15311,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15857,12 +15857,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15983,12 +15983,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16109,12 +16109,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16235,12 +16235,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16319,12 +16319,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16361,12 +16361,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16655,12 +16655,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17159,12 +17159,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17285,12 +17285,12 @@
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17499,12 +17499,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17541,12 +17541,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18549,12 +18549,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18633,12 +18633,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19397,12 +19397,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19565,12 +19565,12 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19947,12 +19947,12 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20115,12 +20115,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20157,12 +20157,12 @@
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20283,12 +20283,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20619,12 +20619,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20661,12 +20661,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20703,12 +20703,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20913,12 +20913,12 @@
       <c r="H487" t="inlineStr"/>
       <c r="I487" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21039,12 +21039,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21081,12 +21081,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21291,12 +21291,12 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21333,12 +21333,12 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21459,12 +21459,12 @@
       <c r="H500" t="inlineStr"/>
       <c r="I500" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21627,12 +21627,12 @@
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21669,12 +21669,12 @@
       <c r="H505" t="inlineStr"/>
       <c r="I505" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21711,12 +21711,12 @@
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22345,12 +22345,12 @@
       <c r="H521" t="inlineStr"/>
       <c r="I521" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22597,12 +22597,12 @@
       <c r="H527" t="inlineStr"/>
       <c r="I527" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22639,12 +22639,12 @@
       <c r="H528" t="inlineStr"/>
       <c r="I528" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22807,12 +22807,12 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22849,12 +22849,12 @@
       <c r="H533" t="inlineStr"/>
       <c r="I533" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23311,12 +23311,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24151,12 +24151,12 @@
       <c r="H564" t="inlineStr"/>
       <c r="I564" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24403,12 +24403,12 @@
       <c r="H570" t="inlineStr"/>
       <c r="I570" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24487,12 +24487,12 @@
       <c r="H572" t="inlineStr"/>
       <c r="I572" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24781,12 +24781,12 @@
       <c r="H579" t="inlineStr"/>
       <c r="I579" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25033,12 +25033,12 @@
       <c r="H585" t="inlineStr"/>
       <c r="I585" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25621,12 +25621,12 @@
       <c r="H599" t="inlineStr"/>
       <c r="I599" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26125,12 +26125,12 @@
       <c r="H611" t="inlineStr"/>
       <c r="I611" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26335,12 +26335,12 @@
       <c r="H616" t="inlineStr"/>
       <c r="I616" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26461,12 +26461,12 @@
       <c r="H619" t="inlineStr"/>
       <c r="I619" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26503,12 +26503,12 @@
       <c r="H620" t="inlineStr"/>
       <c r="I620" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26587,12 +26587,12 @@
       <c r="H622" t="inlineStr"/>
       <c r="I622" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26671,12 +26671,12 @@
       <c r="H624" t="inlineStr"/>
       <c r="I624" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28485,12 +28485,12 @@
       <c r="H667" t="inlineStr"/>
       <c r="I667" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28569,12 +28569,12 @@
       <c r="H669" t="inlineStr"/>
       <c r="I669" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28653,12 +28653,12 @@
       <c r="H671" t="inlineStr"/>
       <c r="I671" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28695,12 +28695,12 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28737,12 +28737,12 @@
       <c r="H673" t="inlineStr"/>
       <c r="I673" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29115,12 +29115,12 @@
       <c r="H682" t="inlineStr"/>
       <c r="I682" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29199,12 +29199,12 @@
       <c r="H684" t="inlineStr"/>
       <c r="I684" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29493,12 +29493,12 @@
       <c r="H691" t="inlineStr"/>
       <c r="I691" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -29535,12 +29535,12 @@
       <c r="H692" t="inlineStr"/>
       <c r="I692" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29577,12 +29577,12 @@
       <c r="H693" t="inlineStr"/>
       <c r="I693" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29661,12 +29661,12 @@
       <c r="H695" t="inlineStr"/>
       <c r="I695" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30081,12 +30081,12 @@
       <c r="H705" t="inlineStr"/>
       <c r="I705" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30291,12 +30291,12 @@
       <c r="H710" t="inlineStr"/>
       <c r="I710" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30547,12 +30547,12 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30589,12 +30589,12 @@
       <c r="H717" t="inlineStr"/>
       <c r="I717" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31009,12 +31009,12 @@
       <c r="H727" t="inlineStr"/>
       <c r="I727" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31471,12 +31471,12 @@
       <c r="H738" t="inlineStr"/>
       <c r="I738" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J738" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31807,12 +31807,12 @@
       <c r="H746" t="inlineStr"/>
       <c r="I746" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -32017,12 +32017,12 @@
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32185,12 +32185,12 @@
       <c r="H755" t="inlineStr"/>
       <c r="I755" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32227,12 +32227,12 @@
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J756" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32479,12 +32479,12 @@
       <c r="H762" t="inlineStr"/>
       <c r="I762" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32991,12 +32991,12 @@
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J774" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33457,12 +33457,12 @@
       <c r="H785" t="inlineStr"/>
       <c r="I785" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J785" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33541,12 +33541,12 @@
       <c r="H787" t="inlineStr"/>
       <c r="I787" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J787" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33625,12 +33625,12 @@
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J789" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34301,12 +34301,12 @@
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J805" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34343,12 +34343,12 @@
       <c r="H806" t="inlineStr"/>
       <c r="I806" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J806" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35233,12 +35233,12 @@
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J827" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35401,12 +35401,12 @@
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J831" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35615,12 +35615,12 @@
       <c r="H836" t="inlineStr"/>
       <c r="I836" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J836" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -35871,12 +35871,12 @@
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J842" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35913,12 +35913,12 @@
       <c r="H843" t="inlineStr"/>
       <c r="I843" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J843" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -36081,12 +36081,12 @@
       <c r="H847" t="inlineStr"/>
       <c r="I847" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J847" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -36207,12 +36207,12 @@
       <c r="H850" t="inlineStr"/>
       <c r="I850" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J850" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -37135,12 +37135,12 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J872" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37303,12 +37303,12 @@
       <c r="H876" t="inlineStr"/>
       <c r="I876" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J876" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -37513,12 +37513,12 @@
       <c r="H881" t="inlineStr"/>
       <c r="I881" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -37681,12 +37681,12 @@
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J885" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38399,12 +38399,12 @@
       <c r="H902" t="inlineStr"/>
       <c r="I902" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J902" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38697,12 +38697,12 @@
       <c r="H909" t="inlineStr"/>
       <c r="I909" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J909" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -38781,12 +38781,12 @@
       <c r="H911" t="inlineStr"/>
       <c r="I911" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J911" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39495,12 +39495,12 @@
       <c r="H928" t="inlineStr"/>
       <c r="I928" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J928" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39705,12 +39705,12 @@
       <c r="H933" t="inlineStr"/>
       <c r="I933" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J933" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -40125,12 +40125,12 @@
       <c r="H943" t="inlineStr"/>
       <c r="I943" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J943" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -40251,12 +40251,12 @@
       <c r="H946" t="inlineStr"/>
       <c r="I946" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J946" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -40293,12 +40293,12 @@
       <c r="H947" t="inlineStr"/>
       <c r="I947" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J947" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
